--- a/inst/extdata/ex01/User_27022018.xlsx
+++ b/inst/extdata/ex01/User_27022018.xlsx
@@ -5,11 +5,11 @@
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Profils\mcanouil\Downloads\DATA\endoc_beta\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Profils\mcanouil\Downloads\DATA\endoc_beta\ex01\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11400" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11400" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Blank" sheetId="3" r:id="rId1"/>
@@ -49,12 +49,6 @@
     <t>BLANK</t>
   </si>
   <si>
-    <t>SN1</t>
-  </si>
-  <si>
-    <t>SN2</t>
-  </si>
-  <si>
     <t>Sample</t>
   </si>
   <si>
@@ -89,9 +83,6 @@
   </si>
   <si>
     <t>Concentration (µg/L)</t>
-  </si>
-  <si>
-    <t>LYSAT</t>
   </si>
   <si>
     <t>Target</t>
@@ -134,6 +125,15 @@
   </si>
   <si>
     <t>0.5 mM Glc + A</t>
+  </si>
+  <si>
+    <t>LYSATE</t>
+  </si>
+  <si>
+    <t>SUPERNATANT1</t>
+  </si>
+  <si>
+    <t>SUPERNATANT2</t>
   </si>
 </sst>
 </file>
@@ -2925,13 +2925,13 @@
         <v>3</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>9</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>11</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>1</v>
@@ -2940,19 +2940,19 @@
         <v>0</v>
       </c>
       <c r="H1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="N1" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
@@ -2960,10 +2960,10 @@
         <v>43158</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>4</v>
@@ -3193,8 +3193,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:H19"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3220,22 +3220,22 @@
         <v>3</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>20</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>23</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>1</v>
@@ -3244,19 +3244,19 @@
         <v>0</v>
       </c>
       <c r="K1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>15</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
@@ -3277,16 +3277,16 @@
         <v>siNTP</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>29</v>
-      </c>
       <c r="H2" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I2" s="1">
         <v>1.8646149999999999</v>
@@ -3329,16 +3329,16 @@
         <v>siNTP</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="F3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>29</v>
-      </c>
       <c r="H3" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I3" s="1">
         <v>1.7382500000000001</v>
@@ -3381,16 +3381,16 @@
         <v>siNTP</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="F4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>29</v>
-      </c>
       <c r="H4" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I4" s="1">
         <v>2.1784050000000001</v>
@@ -3433,16 +3433,16 @@
         <v>siNTP</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="I5" s="1">
         <v>1.889696</v>
@@ -3485,16 +3485,16 @@
         <v>siNTP</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="I6" s="1">
         <v>1.8384510000000001</v>
@@ -3537,16 +3537,16 @@
         <v>siNTP</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="I7" s="1">
         <v>1.8375539999999999</v>
@@ -3589,16 +3589,16 @@
         <v>siNTP</v>
       </c>
       <c r="E8" t="s">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="F8" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G8" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H8" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I8">
         <v>0.29857260000000002</v>
@@ -3643,16 +3643,16 @@
         <v>siNTP</v>
       </c>
       <c r="E9" t="s">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="F9" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G9" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I9">
         <v>0.29650739999999998</v>
@@ -3697,16 +3697,16 @@
         <v>siNTP</v>
       </c>
       <c r="E10" t="s">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="F10" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G10" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H10" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I10">
         <v>0.31024259999999998</v>
@@ -3751,16 +3751,16 @@
         <v>siNTP</v>
       </c>
       <c r="E11" t="s">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="F11" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G11" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H11" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="I11">
         <v>0.45524419999999999</v>
@@ -3805,16 +3805,16 @@
         <v>siNTP</v>
       </c>
       <c r="E12" t="s">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="F12" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G12" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H12" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="I12">
         <v>0.40201510000000001</v>
@@ -3859,16 +3859,16 @@
         <v>siNTP</v>
       </c>
       <c r="E13" t="s">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="F13" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G13" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H13" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="I13">
         <v>0.39864159999999998</v>
@@ -3913,16 +3913,16 @@
         <v>siNTP</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="F14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G14" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G14" s="1" t="s">
-        <v>29</v>
-      </c>
       <c r="H14" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I14" s="1">
         <v>0.60913099999999998</v>
@@ -3967,16 +3967,16 @@
         <v>siNTP</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="F15" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G15" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G15" s="1" t="s">
-        <v>29</v>
-      </c>
       <c r="H15" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I15" s="1">
         <v>0.62085489999999999</v>
@@ -4021,16 +4021,16 @@
         <v>siNTP</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="F16" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G16" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G16" s="1" t="s">
-        <v>29</v>
-      </c>
       <c r="H16" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I16" s="1">
         <v>0.64545350000000001</v>
@@ -4075,16 +4075,16 @@
         <v>siNTP</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="I17" s="1">
         <v>1.5279339999999999</v>
@@ -4129,16 +4129,16 @@
         <v>siNTP</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="I18" s="1">
         <v>1.3713109999999999</v>
@@ -4183,16 +4183,16 @@
         <v>siNTP</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="I19" s="1">
         <v>1.41273</v>
@@ -4230,8 +4230,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O19"/>
   <sheetViews>
-    <sheetView topLeftCell="E3" workbookViewId="0">
-      <selection activeCell="G36" sqref="G36"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4257,22 +4257,22 @@
         <v>3</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>20</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>23</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>1</v>
@@ -4281,19 +4281,19 @@
         <v>0</v>
       </c>
       <c r="K1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>15</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
@@ -4314,16 +4314,16 @@
         <v>siGENE</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I2" s="1">
         <v>1.776505</v>
@@ -4366,16 +4366,16 @@
         <v>siGENE</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I3" s="1">
         <v>1.8383210000000001</v>
@@ -4418,16 +4418,16 @@
         <v>siGENE</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I4" s="1">
         <v>1.6942710000000001</v>
@@ -4470,16 +4470,16 @@
         <v>siGENE</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="I5" s="1">
         <v>1.3679110000000001</v>
@@ -4522,16 +4522,16 @@
         <v>siGENE</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="I6" s="1">
         <v>1.3802559999999999</v>
@@ -4574,16 +4574,16 @@
         <v>siGENE</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="I7" s="1">
         <v>1.2675289999999999</v>
@@ -4626,16 +4626,16 @@
         <v>siGENE</v>
       </c>
       <c r="E8" t="s">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="F8" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="G8" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H8" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I8">
         <v>0.30062749999999999</v>
@@ -4680,16 +4680,16 @@
         <v>siGENE</v>
       </c>
       <c r="E9" t="s">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="F9" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="G9" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I9">
         <v>0.31491619999999998</v>
@@ -4734,16 +4734,16 @@
         <v>siGENE</v>
       </c>
       <c r="E10" t="s">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="F10" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="G10" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H10" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I10">
         <v>0.29484470000000002</v>
@@ -4788,16 +4788,16 @@
         <v>siGENE</v>
       </c>
       <c r="E11" t="s">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="F11" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="G11" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H11" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="I11">
         <v>0.4855255</v>
@@ -4842,16 +4842,16 @@
         <v>siGENE</v>
       </c>
       <c r="E12" t="s">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="F12" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="G12" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H12" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="I12">
         <v>0.41490369999999999</v>
@@ -4896,16 +4896,16 @@
         <v>siGENE</v>
       </c>
       <c r="E13" t="s">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="F13" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="G13" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H13" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="I13">
         <v>0.45084439999999998</v>
@@ -4950,16 +4950,16 @@
         <v>siGENE</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I14" s="1">
         <v>0.6536613</v>
@@ -5004,16 +5004,16 @@
         <v>siGENE</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I15" s="1">
         <v>0.57810530000000004</v>
@@ -5058,16 +5058,16 @@
         <v>siGENE</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I16" s="1">
         <v>0.62143269999999995</v>
@@ -5112,16 +5112,16 @@
         <v>siGENE</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="I17" s="1">
         <v>1.4696309999999999</v>
@@ -5166,16 +5166,16 @@
         <v>siGENE</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="I18" s="1">
         <v>1.43666</v>
@@ -5220,16 +5220,16 @@
         <v>siGENE</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="I19" s="1">
         <v>1.391465</v>
